--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Artn-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Artn-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Artn</t>
+  </si>
+  <si>
+    <t>Ret</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Artn</t>
-  </si>
-  <si>
-    <t>Ret</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +546,10 @@
         <v>1.602144</v>
       </c>
       <c r="I2">
-        <v>0.4424453651869046</v>
+        <v>0.2492808729834395</v>
       </c>
       <c r="J2">
-        <v>0.5032206999227333</v>
+        <v>0.3324807621550537</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.87073</v>
+        <v>0.8639135</v>
       </c>
       <c r="N2">
-        <v>7.74146</v>
+        <v>1.727827</v>
       </c>
       <c r="O2">
-        <v>0.4357780537476825</v>
+        <v>0.1895490737713731</v>
       </c>
       <c r="P2">
-        <v>0.3549718160138305</v>
+        <v>0.1380033232738433</v>
       </c>
       <c r="Q2">
-        <v>2.06715561504</v>
+        <v>0.4613712768479999</v>
       </c>
       <c r="R2">
-        <v>12.40293369024</v>
+        <v>2.768227661088</v>
       </c>
       <c r="S2">
-        <v>0.1928079801308319</v>
+        <v>0.04725095858293024</v>
       </c>
       <c r="T2">
-        <v>0.1786291657073235</v>
+        <v>0.04588345010201768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>1.602144</v>
       </c>
       <c r="I3">
-        <v>0.4424453651869046</v>
+        <v>0.2492808729834395</v>
       </c>
       <c r="J3">
-        <v>0.5032206999227333</v>
+        <v>0.3324807621550537</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>10.153155</v>
       </c>
       <c r="O3">
-        <v>0.38102391756409</v>
+        <v>0.7425593442349591</v>
       </c>
       <c r="P3">
-        <v>0.4655560926000913</v>
+        <v>0.8109429541930055</v>
       </c>
       <c r="Q3">
         <v>1.80742404048</v>
@@ -638,10 +638,10 @@
         <v>16.26681636432</v>
       </c>
       <c r="S3">
-        <v>0.1685822663515889</v>
+        <v>0.1851058415729009</v>
       </c>
       <c r="T3">
-        <v>0.2342774627715108</v>
+        <v>0.2696229314743613</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -670,10 +670,10 @@
         <v>1.602144</v>
       </c>
       <c r="I4">
-        <v>0.4424453651869046</v>
+        <v>0.2492808729834395</v>
       </c>
       <c r="J4">
-        <v>0.5032206999227333</v>
+        <v>0.3324807621550537</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.967637</v>
+        <v>0.2890925</v>
       </c>
       <c r="N4">
-        <v>1.935274</v>
+        <v>0.5781849999999999</v>
       </c>
       <c r="O4">
-        <v>0.1089393909144389</v>
+        <v>0.06342905349812297</v>
       </c>
       <c r="P4">
-        <v>0.08873878134929972</v>
+        <v>0.04618023185601746</v>
       </c>
       <c r="Q4">
-        <v>0.5167646045759999</v>
+        <v>0.15438927144</v>
       </c>
       <c r="R4">
-        <v>3.100587627456</v>
+        <v>0.92633562864</v>
       </c>
       <c r="S4">
-        <v>0.0481997285963779</v>
+        <v>0.01581164982852538</v>
       </c>
       <c r="T4">
-        <v>0.044655191660885</v>
+        <v>0.01535403868398577</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,102 +732,102 @@
         <v>1.602144</v>
       </c>
       <c r="I5">
-        <v>0.4424453651869046</v>
+        <v>0.2492808729834395</v>
       </c>
       <c r="J5">
-        <v>0.5032206999227333</v>
+        <v>0.3324807621550537</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.6595906666666668</v>
+        <v>0.01599833333333333</v>
       </c>
       <c r="N5">
-        <v>1.978772</v>
+        <v>0.047995</v>
       </c>
       <c r="O5">
-        <v>0.07425863777378852</v>
+        <v>0.003510153811948785</v>
       </c>
       <c r="P5">
-        <v>0.09073331003677852</v>
+        <v>0.003833410116017465</v>
       </c>
       <c r="Q5">
-        <v>0.352253076352</v>
+        <v>0.00854387792</v>
       </c>
       <c r="R5">
-        <v>3.170277687168</v>
+        <v>0.07689490128000001</v>
       </c>
       <c r="S5">
-        <v>0.03285539010810593</v>
+        <v>0.0008750142065487409</v>
       </c>
       <c r="T5">
-        <v>0.04565887978301406</v>
+        <v>0.00127453511702638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4373315</v>
+        <v>0.534048</v>
       </c>
       <c r="H6">
-        <v>0.874663</v>
+        <v>1.602144</v>
       </c>
       <c r="I6">
-        <v>0.3623181721965756</v>
+        <v>0.2492808729834395</v>
       </c>
       <c r="J6">
-        <v>0.274724698314582</v>
+        <v>0.3324807621550537</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>3.87073</v>
+        <v>0.004340666666666667</v>
       </c>
       <c r="N6">
-        <v>7.74146</v>
+        <v>0.013022</v>
       </c>
       <c r="O6">
-        <v>0.4357780537476825</v>
+        <v>0.0009523746835961471</v>
       </c>
       <c r="P6">
-        <v>0.3549718160138305</v>
+        <v>0.001040080561116354</v>
       </c>
       <c r="Q6">
-        <v>1.692792156995</v>
+        <v>0.002318124352</v>
       </c>
       <c r="R6">
-        <v>6.77116862798</v>
+        <v>0.020863119168</v>
       </c>
       <c r="S6">
-        <v>0.1578903079172414</v>
+        <v>0.0002374087925341745</v>
       </c>
       <c r="T6">
-        <v>0.09751952506457889</v>
+        <v>0.0003458067776626214</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4373315</v>
+        <v>1.6083065</v>
       </c>
       <c r="H7">
-        <v>0.874663</v>
+        <v>3.216613</v>
       </c>
       <c r="I7">
-        <v>0.3623181721965756</v>
+        <v>0.7507191270165605</v>
       </c>
       <c r="J7">
-        <v>0.274724698314582</v>
+        <v>0.6675192378449464</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.384385</v>
+        <v>0.8639135</v>
       </c>
       <c r="N7">
-        <v>10.153155</v>
+        <v>1.727827</v>
       </c>
       <c r="O7">
-        <v>0.38102391756409</v>
+        <v>0.1895490737713731</v>
       </c>
       <c r="P7">
-        <v>0.4655560926000913</v>
+        <v>0.1380033232738433</v>
       </c>
       <c r="Q7">
-        <v>1.4800981686275</v>
+        <v>1.38943769748775</v>
       </c>
       <c r="R7">
-        <v>8.880589011764998</v>
+        <v>5.557750789951</v>
       </c>
       <c r="S7">
-        <v>0.1380518893749998</v>
+        <v>0.1422981151884428</v>
       </c>
       <c r="T7">
-        <v>0.1278997570880757</v>
+        <v>0.09211987317182563</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4373315</v>
+        <v>1.6083065</v>
       </c>
       <c r="H8">
-        <v>0.874663</v>
+        <v>3.216613</v>
       </c>
       <c r="I8">
-        <v>0.3623181721965756</v>
+        <v>0.7507191270165605</v>
       </c>
       <c r="J8">
-        <v>0.274724698314582</v>
+        <v>0.6675192378449464</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.967637</v>
+        <v>3.384385</v>
       </c>
       <c r="N8">
-        <v>1.935274</v>
+        <v>10.153155</v>
       </c>
       <c r="O8">
-        <v>0.1089393909144389</v>
+        <v>0.7425593442349591</v>
       </c>
       <c r="P8">
-        <v>0.08873878134929972</v>
+        <v>0.8109429541930055</v>
       </c>
       <c r="Q8">
-        <v>0.4231781406655</v>
+        <v>5.4431283940025</v>
       </c>
       <c r="R8">
-        <v>1.692712562662</v>
+        <v>32.658770364015</v>
       </c>
       <c r="S8">
-        <v>0.03947072099632775</v>
+        <v>0.5574535026620581</v>
       </c>
       <c r="T8">
-        <v>0.02437873493499002</v>
+        <v>0.5413200227186443</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,309 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4373315</v>
+        <v>1.6083065</v>
       </c>
       <c r="H9">
-        <v>0.874663</v>
+        <v>3.216613</v>
       </c>
       <c r="I9">
-        <v>0.3623181721965756</v>
+        <v>0.7507191270165605</v>
       </c>
       <c r="J9">
-        <v>0.274724698314582</v>
+        <v>0.6675192378449464</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6595906666666668</v>
+        <v>0.2890925</v>
       </c>
       <c r="N9">
-        <v>1.978772</v>
+        <v>0.5781849999999999</v>
       </c>
       <c r="O9">
-        <v>0.07425863777378852</v>
+        <v>0.06342905349812297</v>
       </c>
       <c r="P9">
-        <v>0.09073331003677852</v>
+        <v>0.04618023185601746</v>
       </c>
       <c r="Q9">
-        <v>0.2884597756393334</v>
+        <v>0.46494934685125</v>
       </c>
       <c r="R9">
-        <v>1.730758653836</v>
+        <v>1.859797387405</v>
       </c>
       <c r="S9">
-        <v>0.02690525390800664</v>
+        <v>0.0476174036695976</v>
       </c>
       <c r="T9">
-        <v>0.02492668122693742</v>
+        <v>0.03082619317203169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.6083065</v>
+      </c>
+      <c r="H10">
+        <v>3.216613</v>
+      </c>
+      <c r="I10">
+        <v>0.7507191270165605</v>
+      </c>
+      <c r="J10">
+        <v>0.6675192378449464</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G10">
-        <v>0.2356576666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.706973</v>
-      </c>
-      <c r="I10">
-        <v>0.1952364626165198</v>
-      </c>
-      <c r="J10">
-        <v>0.2220546017626846</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>3.87073</v>
+        <v>0.01599833333333333</v>
       </c>
       <c r="N10">
-        <v>7.74146</v>
+        <v>0.047995</v>
       </c>
       <c r="O10">
-        <v>0.4357780537476825</v>
+        <v>0.003510153811948785</v>
       </c>
       <c r="P10">
-        <v>0.3549718160138305</v>
+        <v>0.003833410116017465</v>
       </c>
       <c r="Q10">
-        <v>0.9121672000966666</v>
+        <v>0.02573022348916667</v>
       </c>
       <c r="R10">
-        <v>5.47300320058</v>
+        <v>0.154381340935</v>
       </c>
       <c r="S10">
-        <v>0.08507976569960918</v>
+        <v>0.002635139605400044</v>
       </c>
       <c r="T10">
-        <v>0.07882312524192808</v>
+        <v>0.002558874998991086</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.6083065</v>
+      </c>
+      <c r="H11">
+        <v>3.216613</v>
+      </c>
+      <c r="I11">
+        <v>0.7507191270165605</v>
+      </c>
+      <c r="J11">
+        <v>0.6675192378449464</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G11">
-        <v>0.2356576666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.706973</v>
-      </c>
-      <c r="I11">
-        <v>0.1952364626165198</v>
-      </c>
-      <c r="J11">
-        <v>0.2220546017626846</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>3.384385</v>
+        <v>0.004340666666666667</v>
       </c>
       <c r="N11">
-        <v>10.153155</v>
+        <v>0.013022</v>
       </c>
       <c r="O11">
-        <v>0.38102391756409</v>
+        <v>0.0009523746835961471</v>
       </c>
       <c r="P11">
-        <v>0.4655560926000913</v>
+        <v>0.001040080561116354</v>
       </c>
       <c r="Q11">
-        <v>0.7975562722016665</v>
+        <v>0.006981122414333334</v>
       </c>
       <c r="R11">
-        <v>7.178006449814998</v>
+        <v>0.04188673448600001</v>
       </c>
       <c r="S11">
-        <v>0.07438976183750139</v>
+        <v>0.0007149658910619726</v>
       </c>
       <c r="T11">
-        <v>0.1033788727405048</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.2356576666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.706973</v>
-      </c>
-      <c r="I12">
-        <v>0.1952364626165198</v>
-      </c>
-      <c r="J12">
-        <v>0.2220546017626846</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.967637</v>
-      </c>
-      <c r="N12">
-        <v>1.935274</v>
-      </c>
-      <c r="O12">
-        <v>0.1089393909144389</v>
-      </c>
-      <c r="P12">
-        <v>0.08873878134929972</v>
-      </c>
-      <c r="Q12">
-        <v>0.2280310776003333</v>
-      </c>
-      <c r="R12">
-        <v>1.368186465602</v>
-      </c>
-      <c r="S12">
-        <v>0.0212689413217333</v>
-      </c>
-      <c r="T12">
-        <v>0.01970485475342469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.2356576666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.706973</v>
-      </c>
-      <c r="I13">
-        <v>0.1952364626165198</v>
-      </c>
-      <c r="J13">
-        <v>0.2220546017626846</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.6595906666666668</v>
-      </c>
-      <c r="N13">
-        <v>1.978772</v>
-      </c>
-      <c r="O13">
-        <v>0.07425863777378852</v>
-      </c>
-      <c r="P13">
-        <v>0.09073331003677852</v>
-      </c>
-      <c r="Q13">
-        <v>0.1554375974617778</v>
-      </c>
-      <c r="R13">
-        <v>1.398938377156</v>
-      </c>
-      <c r="S13">
-        <v>0.01449799375767595</v>
-      </c>
-      <c r="T13">
-        <v>0.02014774902682705</v>
+        <v>0.0006942737834537331</v>
       </c>
     </row>
   </sheetData>
